--- a/biology/Médecine/Louis_Auquier/Louis_Auquier.xlsx
+++ b/biology/Médecine/Louis_Auquier/Louis_Auquier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Auguste Auquier est médecin et professeur de médecine français né le 4 mai 1918 à Alger et mort le 12 novembre 2007 à Paris[1].
-Il est spécialiste de rhumatologie[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Auguste Auquier est médecin et professeur de médecine français né le 4 mai 1918 à Alger et mort le 12 novembre 2007 à Paris.
+Il est spécialiste de rhumatologie,.
 Il est président de l'université Paris-Descartes de 1981 à 1989 et secrétaire perpétuel de l'Académie nationale de médecine de 1999 à 2003.
 </t>
         </is>
@@ -515,14 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et recherche
-Il nait le 4 mai 1918[4] à Alger d'un père médecin militaire[3],[5]. Il fait ses études secondaires à Marseille[5], dans un établissement dominicain[3]. 
-En 1981, il est élu président de l'université Paris-V, future université Paris-Descartes[6],[7].
-Il soutient sa thèse de médecine sur l'élimination de l'acide urique[3] en 1948 puis est agrégé de médecine en 1958[5],[3].
-En 1969, il dirige le service de rhumatologie de l'Hôpital Ambroise-Paré[5],[3].
-En 1990, il est nommé membre de l'Académie nationale de médecine[8], puis secrétaire perpétuel en 1999[9] jusqu'en 2003[10]. Il en est nommé membre émérite en 2005[11].
-Vie privée
-En 1946, il se marie à Jacqueline Parguel. Ils eurent trois fils[3].
+          <t>Formation et recherche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il nait le 4 mai 1918 à Alger d'un père médecin militaire,. Il fait ses études secondaires à Marseille, dans un établissement dominicain. 
+En 1981, il est élu président de l'université Paris-V, future université Paris-Descartes,.
+Il soutient sa thèse de médecine sur l'élimination de l'acide urique en 1948 puis est agrégé de médecine en 1958,.
+En 1969, il dirige le service de rhumatologie de l'Hôpital Ambroise-Paré,.
+En 1990, il est nommé membre de l'Académie nationale de médecine, puis secrétaire perpétuel en 1999 jusqu'en 2003. Il en est nommé membre émérite en 2005.
 </t>
         </is>
       </c>
@@ -548,13 +563,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur le 31 décembre 2002[12]
- Chevalier de l'ordre national du Mérite</t>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1946, il se marie à Jacqueline Parguel. Ils eurent trois fils.
+</t>
         </is>
       </c>
     </row>
@@ -579,14 +600,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur le 31 décembre 2002
+ Chevalier de l'ordre national du Mérite</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Auquier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Auquier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie nationale de médecine lui publie un éloge le 10 juin 2008[3].
-En 1996, le prix Fauvert de l'Assistance publique des hôpitaux de Paris consacré à la recherche est renommé prix Auquier[13],[14],[3].
-Il est fait docteur honoris causa de l'université de Tel-Aviv en 1983[15] et de l'université de Shangaï II.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie nationale de médecine lui publie un éloge le 10 juin 2008.
+En 1996, le prix Fauvert de l'Assistance publique des hôpitaux de Paris consacré à la recherche est renommé prix Auquier.
+Il est fait docteur honoris causa de l'université de Tel-Aviv en 1983 et de l'université de Shangaï II.
 </t>
         </is>
       </c>
